--- a/pred_ohlcv/54_21/2020-01-11 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LAMB ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-92393.89349999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-92293.89349999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-99967.89349999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-103804.8935</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-105922.5587</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1073392.1115</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1073432.1115</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1221982.3396</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1241819.3396</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1379411.2401</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1379211.2401</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1381429.0925</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1349571.8041</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1372617.5379</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1372599.5379</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1525195.83945862</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1516420.68365862</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1518044.40025862</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1550205.14945862</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1550005.14945862</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1550105.14945862</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1550565.044858621</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1554065.044858621</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1519551.73035862</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LAMB ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-92393.89349999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-92293.89349999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-99967.89349999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-103804.8935</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1151602.5295</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1073392.1115</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1073432.1115</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1221982.3396</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1241819.3396</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1379411.2401</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1379211.2401</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1381429.0925</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1349571.8041</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1372617.5379</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1372599.5379</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1525195.83945862</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1516420.68365862</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1525739.45255862</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1523797.21845862</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1523697.21845862</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1550205.14945862</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1550105.14945862</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1550565.044858621</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1523965.044858621</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1554065.044858621</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1519551.73035862</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1580320.757505026</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1680117.757505026</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1700804.03323593</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
